--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -2045,6 +2045,258 @@
         <v>83100.55</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>44398.61584690525</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Homem</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Submariner Cartier; </t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J61" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>44398.74383110576</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J62" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>44398.77006889324</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J63" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>44398.83525117041</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J64" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>44398.83705878535</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Novas Tecnlogias</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: China; Marca: Huawei; Nome: GT 2; </t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>44398.84424005127</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Novas Tecnlogias</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: China; Marca: Huawei; Nome: GT 2; </t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>299.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -2297,6 +2297,762 @@
         <v>299.8</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>44398.85660715228</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Novas Tecnlogias</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: China; Marca: Huawei; Nome: GT 2; </t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>44398.88385529376</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Novas Tecnlogias</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: China; Marca: Huawei; Nome: GT 2; </t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>F17942_1626898623</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>44398.88684445534</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Novas Tecnlogias</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: China; Marca: Huawei; Nome: GT 2; </t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>F37505_1626899259</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>44398.89420803271</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J70" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>F40571_1626899731</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>44398.89967081232</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Novas Tecnlogias</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: China; Marca: Huawei; Nome: GT 2; </t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>F62710_1626899783</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>44398.90027459266</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J72" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>F94433_1626900065</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>44398.90354263838</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J73" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>F33964_1626901479</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>44398.91990154207</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J74" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>F38171_1626901672</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>44398.92213560616</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J75" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>F84158_1626901801</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>44398.92363390295</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J76" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>F71811_1626901822</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>44398.92387576058</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Novas Tecnlogias</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: China; Marca: Huawei; Nome: GT 2; </t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="J77" t="n">
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>F91234_1626901942</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>44398.92526662051</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J78" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>F74168_1626902035</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>44398.92634094218</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J79" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>F76083_1626902305</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>44398.92946619848</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J80" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>F18080_1626902389</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>44398.93043213227</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J81" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>F04584_1626902439</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>44398.93100946351</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J82" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>F99772_1626902463</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>44398.93129764326</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J83" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>F66987_1626902477</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>44398.93145587431</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Mulher</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipo: Relógio de mão; Fabricante: Suiça; Marca: Rolex; Nome: Unworn; </t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>83100.55</v>
+      </c>
+      <c r="J84" t="n">
+        <v>83100.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
